--- a/data/trans_bre/P1418-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Edad-trans_bre.xlsx
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1381560260129625</v>
+        <v>-0.1322181406472495</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.514873009958371</v>
+        <v>-1.315986716279268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.118805867638292</v>
+        <v>-2.164786423188855</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.600994578384722</v>
+        <v>1.47317346806379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.301834649798581</v>
+        <v>1.147886915870076</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.460388261400405</v>
+        <v>2.690130175279907</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5000898841351817</v>
+        <v>0.4862969584217644</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2170123389343767</v>
+        <v>-0.2522190173398369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.360310838074757</v>
+        <v>0.3391563503569202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1775725787055117</v>
+        <v>-0.2031318313644506</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04763867253901546</v>
+        <v>0.1689987546789639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7188316686839766</v>
+        <v>-0.6304345636699045</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -774,19 +774,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.742257184192367</v>
+        <v>3.651489383491392</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.622129694169363</v>
+        <v>1.602048885491569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.364643941939294</v>
+        <v>2.349287169791793</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.858315369111208</v>
+        <v>1.780892254263012</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.997520972687653</v>
+        <v>9.203214680850939</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
@@ -838,26 +838,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.758095159937535</v>
+        <v>1.476200986361921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.871494743159142</v>
+        <v>1.906262236674403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.509940937378525</v>
+        <v>1.61042187940978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.045421864896614</v>
+        <v>1.182041929890186</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4823192498384375</v>
+        <v>0.4167580550533638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5488720292668064</v>
+        <v>0.676256275166363</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>0.4464525658813026</v>
+        <v>0.4246601485196219</v>
       </c>
     </row>
     <row r="12">
@@ -868,26 +868,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.844745993913616</v>
+        <v>5.812147400309578</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.19613635107031</v>
+        <v>5.384015718137849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.061504438924782</v>
+        <v>4.173620952241857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.061320501071227</v>
+        <v>4.286185594567608</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.195612670948512</v>
+        <v>4.542519506332203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>30.29053761103674</v>
+        <v>35.02276663948761</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>9.745984597431814</v>
+        <v>11.36631124237109</v>
       </c>
     </row>
     <row r="13">
@@ -934,28 +934,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.283447851659833</v>
+        <v>1.533399895815689</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.227062578639214</v>
+        <v>2.085206721281237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1829057811783323</v>
+        <v>0.3585533761085011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.510201036991139</v>
+        <v>1.496440223909662</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1718375415469692</v>
+        <v>0.2001255822873657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6460161471170245</v>
+        <v>0.594659200950071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.008951310951826635</v>
+        <v>0.09498858343333029</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2870765620525983</v>
+        <v>0.2401709107655218</v>
       </c>
     </row>
     <row r="15">
@@ -966,28 +966,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.284871676815129</v>
+        <v>8.189015888631801</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.776512866772176</v>
+        <v>6.859725277365075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.9406966484076</v>
+        <v>4.183451281731895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.859935593085911</v>
+        <v>5.784003617201949</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.37826175970025</v>
+        <v>2.249100125407628</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.354826525812659</v>
+        <v>6.946500040515901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.024720058390451</v>
+        <v>4.584012135807489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.078100060235279</v>
+        <v>1.983659969364717</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>6.833462309267424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.136341138169146</v>
+        <v>5.136341138169151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02254643492502675</v>
@@ -1023,7 +1023,7 @@
         <v>2.336421278037217</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.045731772557402</v>
+        <v>1.045731772557404</v>
       </c>
     </row>
     <row r="17">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.308070423753872</v>
+        <v>-3.936518963887212</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.261890558647845</v>
+        <v>5.999668803539994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.821369367501932</v>
+        <v>3.78734462579313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.527010786952061</v>
+        <v>2.602706062854411</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2962963464502087</v>
+        <v>-0.3034717927085724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.226430802173569</v>
+        <v>1.181378676516768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.856389290670965</v>
+        <v>0.8645355306893822</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3842897082373116</v>
+        <v>0.390113190345672</v>
       </c>
     </row>
     <row r="18">
@@ -1066,28 +1066,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.031190787396101</v>
+        <v>4.618853989442176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.52493970107515</v>
+        <v>13.38015643897977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.00046858028715</v>
+        <v>10.2185313827114</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.812822107641487</v>
+        <v>7.652556287620834</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5592386147241341</v>
+        <v>0.4968437940800399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.92491326870322</v>
+        <v>6.011113600309183</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.479584449659424</v>
+        <v>6.720869670076167</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.103382973170387</v>
+        <v>2.025364005894875</v>
       </c>
     </row>
     <row r="19">
@@ -1111,7 +1111,7 @@
         <v>9.847819605452074</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.121069398099348</v>
+        <v>5.121069398099347</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5960038189998653</v>
@@ -1123,7 +1123,7 @@
         <v>1.587494145233363</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.6456145601532779</v>
+        <v>0.6456145601532778</v>
       </c>
     </row>
     <row r="20">
@@ -1134,28 +1134,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.96495993610896</v>
+        <v>2.70087723267698</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.937605661649098</v>
+        <v>4.752064781944767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.058166656112081</v>
+        <v>5.25740342686941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.943270967943352</v>
+        <v>2.026291677948263</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1649902902986484</v>
+        <v>0.1488705063304523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3641252610822907</v>
+        <v>0.35401277454251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5655486271385267</v>
+        <v>0.5019244706114028</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1963899169017651</v>
+        <v>0.1959239288446922</v>
       </c>
     </row>
     <row r="21">
@@ -1166,28 +1166,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.90578495724514</v>
+        <v>14.80660964335626</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.94231806968652</v>
+        <v>15.95314662647127</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.68736304386958</v>
+        <v>14.57884455789085</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.133544372405833</v>
+        <v>8.72235260358406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.139998152977426</v>
+        <v>1.263230293975682</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.118018922765243</v>
+        <v>2.060575855481388</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.249537126611799</v>
+        <v>3.281437915727685</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.246464706726003</v>
+        <v>1.352431394453997</v>
       </c>
     </row>
     <row r="22">
@@ -1234,28 +1234,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.240843964877746</v>
+        <v>1.914983966093172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.60462803507157</v>
+        <v>10.53555995233937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.210126318489527</v>
+        <v>4.828089236349483</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.004988695564</v>
+        <v>6.054675900309653</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0807160917875404</v>
+        <v>0.07673556017305307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.508655965012652</v>
+        <v>0.4890793681720593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2446181134794021</v>
+        <v>0.2849471573357092</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3145446728977946</v>
+        <v>0.3293444293286374</v>
       </c>
     </row>
     <row r="24">
@@ -1266,28 +1266,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.69299882743546</v>
+        <v>17.18801934138788</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.16606702978387</v>
+        <v>25.2768559540119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.324990190941</v>
+        <v>17.05067356743618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.03372246822181</v>
+        <v>15.16989664446681</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.035402867336782</v>
+        <v>1.023100533684854</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.876508985269268</v>
+        <v>1.986643746350388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.617936728186465</v>
+        <v>1.686387684542663</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.170363070668506</v>
+        <v>1.152372340747213</v>
       </c>
     </row>
     <row r="25">
@@ -1334,28 +1334,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.423952312759858</v>
+        <v>3.390369781274092</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.468859246253692</v>
+        <v>5.47743949904439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.609289546794796</v>
+        <v>3.69408094350243</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.610496776568078</v>
+        <v>3.569450761101485</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5766398584634956</v>
+        <v>0.5554191921367343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.493970961775427</v>
+        <v>1.548396782033233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.346756807580446</v>
+        <v>1.351303871030436</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7700700107344205</v>
+        <v>0.7390101923768541</v>
       </c>
     </row>
     <row r="27">
@@ -1366,28 +1366,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.980610133474189</v>
+        <v>5.886691809521658</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.829195675221998</v>
+        <v>7.780121108162732</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.755405883982723</v>
+        <v>5.819523184308721</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.549028486487788</v>
+        <v>5.540854906522018</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.228376231554995</v>
+        <v>1.190903813270168</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.947051665438676</v>
+        <v>2.916167243726369</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.85737203402202</v>
+        <v>2.829265830178318</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.519835673892422</v>
+        <v>1.473045112886966</v>
       </c>
     </row>
     <row r="28">
